--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C95E980-5B49-4C81-B8BD-052C75559294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE44F25-70E6-4CE9-9579-001445CF08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17610" yWindow="8505" windowWidth="16440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>프로젝트 해피 룰루</t>
-  </si>
-  <si>
-    <t>Project Happy LULU</t>
   </si>
   <si>
     <t xml:space="preserve">West Coast IPA </t>
@@ -121,6 +118,10 @@
       </rPr>
       <t>8,200원</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Project Happ</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1336,8 +1337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1390,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>10</v>
@@ -1411,7 +1412,7 @@
         <v>12</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>13</v>
@@ -1424,8 +1425,8 @@
       <c r="B3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
+      <c r="C3" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
@@ -1437,13 +1438,13 @@
         <v>4.5</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>13</v>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE44F25-70E6-4CE9-9579-001445CF08CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355E03F-F034-4504-8101-8AF6F649ECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="8505" windowWidth="16440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="인쇄시트" sheetId="1" r:id="rId1"/>
+    <sheet name="나라시트" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
   <si>
     <t>type</t>
   </si>
@@ -43,93 +44,174 @@
     <t>Style</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>한국</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dal monte Passionfruit Coconut</t>
+  </si>
+  <si>
+    <t>5,900 원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smoothie Style Hard Seltzer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아랍에미리트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아르헨티나</t>
+  </si>
+  <si>
+    <t>오스트리아</t>
+  </si>
+  <si>
+    <t>호주</t>
+  </si>
+  <si>
+    <t>벨기에</t>
+  </si>
+  <si>
+    <t>불가리아</t>
+  </si>
+  <si>
+    <t>브라질</t>
+  </si>
+  <si>
+    <t>캐나다</t>
+  </si>
+  <si>
+    <t>스위스</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>체코</t>
+  </si>
+  <si>
+    <t>독일</t>
+  </si>
+  <si>
+    <t>덴마크</t>
+  </si>
+  <si>
+    <t>스페인</t>
+  </si>
+  <si>
+    <t>핀란드</t>
+  </si>
+  <si>
+    <t>프랑스</t>
+  </si>
+  <si>
+    <t>영국</t>
+  </si>
+  <si>
+    <t>그리스</t>
+  </si>
+  <si>
+    <t>헝가리</t>
+  </si>
+  <si>
+    <t>아일랜드</t>
+  </si>
+  <si>
+    <t>인도</t>
+  </si>
+  <si>
+    <t>이탈리아</t>
+  </si>
+  <si>
+    <t>일본</t>
+  </si>
+  <si>
+    <t>모나코</t>
+  </si>
+  <si>
+    <t>멕시코</t>
+  </si>
+  <si>
+    <t>노르웨이</t>
+  </si>
+  <si>
+    <t>네덜란드</t>
+  </si>
+  <si>
+    <t>뉴질랜드</t>
+  </si>
+  <si>
+    <t>폴란드</t>
+  </si>
+  <si>
+    <t>필리핀</t>
+  </si>
+  <si>
+    <t>포르투갈</t>
+  </si>
+  <si>
+    <t>스웨덴</t>
+  </si>
+  <si>
+    <t>싱가포르</t>
+  </si>
+  <si>
+    <t>터키</t>
+  </si>
+  <si>
+    <t>대만</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>우크라이나</t>
+  </si>
+  <si>
+    <t>우루과이</t>
+  </si>
+  <si>
+    <t>베트남</t>
+  </si>
+  <si>
     <t>tasteNote</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>Cat Saves the Universe</t>
-  </si>
-  <si>
-    <t>NE Pale Ale</t>
-  </si>
-  <si>
-    <t>코코넛 Coconut</t>
-  </si>
-  <si>
-    <t>한국</t>
-  </si>
-  <si>
-    <t>프로젝트 해피 룰루</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Coast IPA </t>
-  </si>
-  <si>
-    <t>오렌지 / Orange</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">파이어니어 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>&amp; 익스프롤러</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>6,600원</t>
-    </r>
+    <t>패션후르츠 / Coconut</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>8,200원</t>
-    </r>
+    <t>달몬트</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Project Happ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>5,901 원</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -147,6 +229,25 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -186,7 +287,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -199,10 +300,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,20 +1450,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O12" sqref="O11:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="8.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="1" customWidth="1"/>
+    <col min="10" max="11" width="8.875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1376,170 +1490,433 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="3">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>4</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>13</v>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="6"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-    </row>
+    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51D34DCC-32AC-4597-B30A-3AA82C2044B9}">
+          <x14:formula1>
+            <xm:f>나라시트!A1:A41</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF385CAE-74BE-44A0-9A72-2591FAA715C5}">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C355E03F-F034-4504-8101-8AF6F649ECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA5789-56DA-409A-94D9-756CA5C5DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1451,7 +1451,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O11:O12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1660,18 +1660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
+    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1678,7 @@
           <x14:formula1>
             <xm:f>나라시트!A1:A41</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J7</xm:sqref>
+          <xm:sqref>J2:J6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EA5789-56DA-409A-94D9-756CA5C5DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350942C4-52AC-4A14-87BD-F635A037B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인쇄시트" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>type</t>
   </si>
@@ -60,10 +60,6 @@
     <t>Dal monte Passionfruit Coconut</t>
   </si>
   <si>
-    <t>5,900 원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Smoothie Style Hard Seltzer</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -201,7 +197,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5,901 원</t>
+    <t>파라볼라</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parabola</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1450,13 +1455,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="8.875" style="1" customWidth="1"/>
@@ -1491,7 +1496,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -1508,7 +1513,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3">
         <v>3</v>
@@ -1520,13 +1525,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>10</v>
@@ -1537,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>11</v>
@@ -1552,13 +1557,13 @@
         <v>4</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>10</v>
@@ -1569,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -1584,13 +1589,13 @@
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>10</v>
@@ -1601,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>11</v>
@@ -1616,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
@@ -1633,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>11</v>
@@ -1648,13 +1653,13 @@
         <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>10</v>
@@ -1691,7 +1696,7 @@
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1701,117 +1706,117 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
@@ -1821,87 +1826,87 @@
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{350942C4-52AC-4A14-87BD-F635A037B079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1143B4A-A837-4500-BA23-1EE2FBD6E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인쇄시트" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>type</t>
   </si>
@@ -206,6 +206,22 @@
   </si>
   <si>
     <t>5900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>alePrice</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1453,10 +1469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1473,7 +1489,7 @@
     <col min="12" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1504,8 +1520,11 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K1" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1569,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -1601,7 +1620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1633,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1665,10 +1684,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1143B4A-A837-4500-BA23-1EE2FBD6E63F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821E011-AB16-4B4A-B99C-D1A406239EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>type</t>
   </si>
@@ -224,6 +224,19 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태국</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -232,7 +245,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -269,6 +282,13 @@
       <color rgb="FF000000"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1472,7 +1492,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1698,9 +1718,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{51D34DCC-32AC-4597-B30A-3AA82C2044B9}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B99819A4-65D4-420D-9796-469DFC390E24}">
           <x14:formula1>
-            <xm:f>나라시트!A1:A41</xm:f>
+            <xm:f>나라시트!A1:A50</xm:f>
           </x14:formula1>
           <xm:sqref>J2:J6</xm:sqref>
         </x14:dataValidation>
@@ -1712,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF385CAE-74BE-44A0-9A72-2591FAA715C5}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1928,6 +1948,11 @@
         <v>52</v>
       </c>
     </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E821E011-AB16-4B4A-B99C-D1A406239EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA88B2-8123-44A8-9671-9E1226A9331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인쇄시트" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
   <si>
     <t>type</t>
   </si>
@@ -234,6 +234,19 @@
         <charset val="129"/>
       </rPr>
       <t>태국</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에스토디아</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1492,7 +1505,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1732,10 +1745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF385CAE-74BE-44A0-9A72-2591FAA715C5}">
-  <dimension ref="A1:A42"/>
+  <dimension ref="A1:A43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1953,6 +1966,11 @@
         <v>60</v>
       </c>
     </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataFile.xlsx
+++ b/dataFile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saup1\Desktop\project\dalmac_logo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AA88B2-8123-44A8-9671-9E1226A9331B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2E6650-7CD1-4D5C-A2BB-752D08E7DFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="인쇄시트" sheetId="1" r:id="rId1"/>
@@ -238,16 +238,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에스토디아</t>
-    </r>
+    <t>에스토니아</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -370,6 +361,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1504,7 +1498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
@@ -1747,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF385CAE-74BE-44A0-9A72-2591FAA715C5}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1967,7 +1961,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
     </row>
